--- a/biology/Microbiologie/Haptorida/Haptorida.xlsx
+++ b/biology/Microbiologie/Haptorida/Haptorida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Haptorida sont un ordre de Ciliés de la classe des Litostomatea (ou des Gymnostomatea selon certains auteurs).
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Haptorida a été créé en 1974 par le protozoologiste et microbiologiste américain John Ozro Corliss (1922-2014)[1].
-Cet ordre est placé dans la classe des Litostomatea, sous-classe des Haptoria[1],[2],[3],[4],[5],[6],[7], ou bien dans la classe des Gymnostomatea[8],[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Haptorida a été créé en 1974 par le protozoologiste et microbiologiste américain John Ozro Corliss (1922-2014).
+Cet ordre est placé dans la classe des Litostomatea, sous-classe des Haptoria ou bien dans la classe des Gymnostomatea,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (23 septembre 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (23 septembre 2023) :
 Acropisthiidae Foissner &amp; Foissner, 1988
 Didiniidae Poche, 1913
 Enchelyidae Ehrenberg, 1838
@@ -556,7 +572,7 @@
 Spathidiidae Kahl in Doflein &amp; Reichenow, 1929
 Tracheliidae Ehrenberg, 1838
 Trachelophyllidae Kent, 1882
-Selon GBIF       (23 septembre 2023)[9]
+Selon GBIF       (23 septembre 2023)
 Acropisthiidae
 Didiniidae
 Enchelyidae
@@ -568,7 +584,7 @@
 Lagynophryidae
 Lecanophryidae
 Protohallidae
-Selon The Taxonomicon  (23 septembre 2023)[5]
+Selon The Taxonomicon  (23 septembre 2023)
 Acropisthiidae Foissner &amp; Foissner, 1988
 Actinobolinidae Kahl, 1930
 Didiniidae Poche, 1913
@@ -584,7 +600,7 @@
 Spathidiidae Kahl, in Doflein &amp; Reichenow, 1929
 Tracheliidae Ehrenberg, 1838
 Trachelophyllidae Kent, 1882
-Selon l'IRMNG  (23 septembre 2023)[2] :
+Selon l'IRMNG  (23 septembre 2023) :
 Acropisthiidae Foissner &amp; Foissner, 1988
 Actinobolinidae
 Apertospathulidae Foissner, Xu &amp; Kreutz, 2005
@@ -605,7 +621,7 @@
 Spathidiidae Kahl in Doflein &amp; Reichenow, 1929
 Tracheliidae Ehrenberg, 1838
 Trachelophyllidae Kent, 1882
-Selon l'AlgaeBase                                           (23 septembre 2023)[3] :
+Selon l'AlgaeBase                                           (23 septembre 2023) :
 Didiniidae</t>
         </is>
       </c>
